--- a/db.xlsx
+++ b/db.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="720" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="720" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -939,6 +939,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
+  </numFmts>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -1025,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1058,12 +1061,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1921,10 +1927,10 @@
         <f>LOOKUP(C2,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>5</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D2" s="12">
         <v>1</v>
       </c>
       <c r="E2" t="s">
@@ -1937,7 +1943,7 @@
       <c r="G2" t="s">
         <v>95</v>
       </c>
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1949,10 +1955,10 @@
         <f>LOOKUP(C3,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>24</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="13">
+      <c r="D3" s="12">
         <v>1</v>
       </c>
       <c r="E3" t="s">
@@ -1965,7 +1971,7 @@
       <c r="G3" t="s">
         <v>184</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1977,10 +1983,10 @@
         <f>LOOKUP(C4,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>1</v>
       </c>
       <c r="E4" t="s">
@@ -1993,7 +1999,7 @@
       <c r="G4" t="s">
         <v>100</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2005,10 +2011,10 @@
         <f>LOOKUP(C5,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>36</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>1</v>
       </c>
       <c r="E5" t="s">
@@ -2021,7 +2027,7 @@
       <c r="G5" t="s">
         <v>103</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2033,10 +2039,10 @@
         <f>LOOKUP(C6,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>3</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>1</v>
       </c>
       <c r="E6" t="s">
@@ -2049,7 +2055,7 @@
       <c r="G6" t="s">
         <v>106</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="13" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2061,10 +2067,10 @@
         <f>LOOKUP(C7,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>1</v>
       </c>
       <c r="E7" t="s">
@@ -2077,7 +2083,7 @@
       <c r="G7" t="s">
         <v>109</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="13" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2089,10 +2095,10 @@
         <f>LOOKUP(C8,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>29</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>1</v>
       </c>
       <c r="E8" t="s">
@@ -2105,7 +2111,7 @@
       <c r="G8" t="s">
         <v>112</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="13" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2117,10 +2123,10 @@
         <f>LOOKUP(C9,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>26</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>1</v>
       </c>
       <c r="E9" t="s">
@@ -2133,7 +2139,7 @@
       <c r="G9" t="s">
         <v>115</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2145,10 +2151,10 @@
         <f>LOOKUP(C10,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>19</v>
       </c>
-      <c r="C10" s="13" t="s">
+      <c r="C10" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>1</v>
       </c>
       <c r="E10" t="s">
@@ -2161,7 +2167,7 @@
       <c r="G10" t="s">
         <v>118</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2173,10 +2179,10 @@
         <f>LOOKUP(C11,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>35</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>1</v>
       </c>
       <c r="E11" t="s">
@@ -2189,7 +2195,7 @@
       <c r="G11" t="s">
         <v>121</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2201,10 +2207,10 @@
         <f>LOOKUP(C12,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>21</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="13">
+      <c r="D12" s="12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
@@ -2217,7 +2223,7 @@
       <c r="G12" t="s">
         <v>123</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2229,10 +2235,10 @@
         <f>LOOKUP(C13,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>18</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D13" s="13">
+      <c r="D13" s="12">
         <v>1</v>
       </c>
       <c r="E13" t="s">
@@ -2245,7 +2251,7 @@
       <c r="G13" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="13" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2257,10 +2263,10 @@
         <f>LOOKUP(C14,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>8</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D14" s="13">
+      <c r="D14" s="12">
         <v>1</v>
       </c>
       <c r="E14" t="s">
@@ -2273,7 +2279,7 @@
       <c r="G14" t="s">
         <v>95</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="13" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2285,10 +2291,10 @@
         <f>LOOKUP(C15,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>20</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>1</v>
       </c>
       <c r="E15" t="s">
@@ -2301,7 +2307,7 @@
       <c r="G15" t="s">
         <v>131</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="13" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2313,10 +2319,10 @@
         <f>LOOKUP(C16,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>17</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="12">
         <v>1</v>
       </c>
       <c r="E16" t="s">
@@ -2329,7 +2335,7 @@
       <c r="G16" t="s">
         <v>134</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -2341,10 +2347,10 @@
         <f>LOOKUP(C17,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>6</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="12">
         <v>1</v>
       </c>
       <c r="E17" t="s">
@@ -2357,7 +2363,7 @@
       <c r="G17" t="s">
         <v>136</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="13" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2369,10 +2375,10 @@
         <f>LOOKUP(C18,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>12</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="12">
         <v>1</v>
       </c>
       <c r="E18" t="s">
@@ -2385,7 +2391,7 @@
       <c r="G18" t="s">
         <v>138</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="13" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2397,10 +2403,10 @@
         <f>LOOKUP(C19,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>31</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="12">
         <v>1</v>
       </c>
       <c r="E19" t="s">
@@ -2413,7 +2419,7 @@
       <c r="G19" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="14" t="s">
+      <c r="H19" s="13" t="s">
         <v>140</v>
       </c>
     </row>
@@ -2425,10 +2431,10 @@
         <f>LOOKUP(C20,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>32</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="12">
         <v>1</v>
       </c>
       <c r="E20" t="s">
@@ -2441,7 +2447,7 @@
       <c r="G20" t="s">
         <v>142</v>
       </c>
-      <c r="H20" s="14" t="s">
+      <c r="H20" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2453,10 +2459,10 @@
         <f>LOOKUP(C21,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>9</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="12">
         <v>1</v>
       </c>
       <c r="E21" t="s">
@@ -2469,7 +2475,7 @@
       <c r="G21" t="s">
         <v>144</v>
       </c>
-      <c r="H21" s="14" t="s">
+      <c r="H21" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2481,10 +2487,10 @@
         <f>LOOKUP(C22,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>25</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="12">
         <v>1</v>
       </c>
       <c r="E22" t="s">
@@ -2497,7 +2503,7 @@
       <c r="G22" t="s">
         <v>147</v>
       </c>
-      <c r="H22" s="14" t="s">
+      <c r="H22" s="13" t="s">
         <v>148</v>
       </c>
     </row>
@@ -2509,10 +2515,10 @@
         <f>LOOKUP(C23,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>11</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="12">
         <v>1</v>
       </c>
       <c r="E23" t="s">
@@ -2525,7 +2531,7 @@
       <c r="G23" t="s">
         <v>150</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2537,10 +2543,10 @@
         <f>LOOKUP(C24,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>28</v>
       </c>
-      <c r="C24" s="13" t="s">
+      <c r="C24" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="12">
         <v>1</v>
       </c>
       <c r="E24" t="s">
@@ -2553,7 +2559,7 @@
       <c r="G24" t="s">
         <v>152</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2565,10 +2571,10 @@
         <f>LOOKUP(C25,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>15</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="12">
         <v>1</v>
       </c>
       <c r="E25" t="s">
@@ -2581,7 +2587,7 @@
       <c r="G25" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="14" t="s">
+      <c r="H25" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2593,10 +2599,10 @@
         <f>LOOKUP(C26,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>22</v>
       </c>
-      <c r="C26" s="13" t="s">
+      <c r="C26" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="D26" s="13">
+      <c r="D26" s="12">
         <v>1</v>
       </c>
       <c r="E26" t="s">
@@ -2609,7 +2615,7 @@
       <c r="G26" t="s">
         <v>156</v>
       </c>
-      <c r="H26" s="14" t="s">
+      <c r="H26" s="13" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2621,10 +2627,10 @@
         <f>LOOKUP(C27,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>23</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="D27" s="13">
+      <c r="D27" s="12">
         <v>1</v>
       </c>
       <c r="E27" t="s">
@@ -2637,7 +2643,7 @@
       <c r="G27" t="s">
         <v>158</v>
       </c>
-      <c r="H27" s="14" t="s">
+      <c r="H27" s="13" t="s">
         <v>159</v>
       </c>
     </row>
@@ -2649,10 +2655,10 @@
         <f>LOOKUP(C28,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>10</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C28" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D28" s="12">
         <v>1</v>
       </c>
       <c r="E28" t="s">
@@ -2665,7 +2671,7 @@
       <c r="G28" t="s">
         <v>161</v>
       </c>
-      <c r="H28" s="14" t="s">
+      <c r="H28" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -2677,10 +2683,10 @@
         <f>LOOKUP(C29,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>13</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C29" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="D29" s="13">
+      <c r="D29" s="12">
         <v>1</v>
       </c>
       <c r="E29" t="s">
@@ -2693,7 +2699,7 @@
       <c r="G29" t="s">
         <v>164</v>
       </c>
-      <c r="H29" s="14" t="s">
+      <c r="H29" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -2705,10 +2711,10 @@
         <f>LOOKUP(C30,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>1</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D30" s="12">
         <v>1</v>
       </c>
       <c r="E30" t="s">
@@ -2721,7 +2727,7 @@
       <c r="G30" t="s">
         <v>166</v>
       </c>
-      <c r="H30" s="14" t="s">
+      <c r="H30" s="13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -2733,10 +2739,10 @@
         <f>LOOKUP(C31,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>34</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="12">
         <v>1</v>
       </c>
       <c r="E31" t="s">
@@ -2749,7 +2755,7 @@
       <c r="G31" t="s">
         <v>106</v>
       </c>
-      <c r="H31" s="14" t="s">
+      <c r="H31" s="13" t="s">
         <v>168</v>
       </c>
     </row>
@@ -2761,10 +2767,10 @@
         <f>LOOKUP(C32,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>27</v>
       </c>
-      <c r="C32" s="13" t="s">
+      <c r="C32" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D32" s="12">
         <v>1</v>
       </c>
       <c r="E32" t="s">
@@ -2777,7 +2783,7 @@
       <c r="G32" t="s">
         <v>170</v>
       </c>
-      <c r="H32" s="14" t="s">
+      <c r="H32" s="13" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2789,10 +2795,10 @@
         <f>LOOKUP(C33,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>14</v>
       </c>
-      <c r="C33" s="13" t="s">
+      <c r="C33" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="13">
+      <c r="D33" s="12">
         <v>1</v>
       </c>
       <c r="E33" t="s">
@@ -2805,7 +2811,7 @@
       <c r="G33" t="s">
         <v>147</v>
       </c>
-      <c r="H33" s="14" t="s">
+      <c r="H33" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2817,10 +2823,10 @@
         <f>LOOKUP(C34,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>16</v>
       </c>
-      <c r="C34" s="13" t="s">
+      <c r="C34" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D34" s="12">
         <v>1</v>
       </c>
       <c r="E34" t="s">
@@ -2833,7 +2839,7 @@
       <c r="G34" t="s">
         <v>175</v>
       </c>
-      <c r="H34" s="14" t="s">
+      <c r="H34" s="13" t="s">
         <v>173</v>
       </c>
     </row>
@@ -2845,10 +2851,10 @@
         <f>LOOKUP(C35,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>30</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="D35" s="13">
+      <c r="D35" s="12">
         <v>1</v>
       </c>
       <c r="E35" t="s">
@@ -2861,7 +2867,7 @@
       <c r="G35" t="s">
         <v>177</v>
       </c>
-      <c r="H35" s="14" t="s">
+      <c r="H35" s="13" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2873,10 +2879,10 @@
         <f>LOOKUP(C36,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>33</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D36" s="12">
         <v>1</v>
       </c>
       <c r="E36" t="s">
@@ -2889,7 +2895,7 @@
       <c r="G36" t="s">
         <v>126</v>
       </c>
-      <c r="H36" s="14" t="s">
+      <c r="H36" s="13" t="s">
         <v>180</v>
       </c>
     </row>
@@ -2901,10 +2907,10 @@
         <f>LOOKUP(C37,Indexes!$B$2:$B$37,Indexes!$A$2:$A$37)</f>
         <v>4</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C37" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="D37" s="13">
+      <c r="D37" s="12">
         <v>1</v>
       </c>
       <c r="E37" t="s">
@@ -2917,7 +2923,7 @@
       <c r="G37" t="s">
         <v>182</v>
       </c>
-      <c r="H37" s="14" t="s">
+      <c r="H37" s="13" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2951,7 +2957,7 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>165</v>
       </c>
     </row>
@@ -2959,7 +2965,7 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>108</v>
       </c>
     </row>
@@ -2967,7 +2973,7 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>105</v>
       </c>
     </row>
@@ -2975,7 +2981,7 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>181</v>
       </c>
     </row>
@@ -2983,7 +2989,7 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2991,7 +2997,7 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2999,7 +3005,7 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3007,7 +3013,7 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="12" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3015,7 +3021,7 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="12" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3023,7 +3029,7 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="12" t="s">
         <v>160</v>
       </c>
     </row>
@@ -3031,7 +3037,7 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="12" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3039,7 +3045,7 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3047,7 +3053,7 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>163</v>
       </c>
     </row>
@@ -3055,7 +3061,7 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>172</v>
       </c>
     </row>
@@ -3063,7 +3069,7 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>154</v>
       </c>
     </row>
@@ -3071,7 +3077,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>174</v>
       </c>
     </row>
@@ -3079,7 +3085,7 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3087,7 +3093,7 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>125</v>
       </c>
     </row>
@@ -3095,7 +3101,7 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>117</v>
       </c>
     </row>
@@ -3103,7 +3109,7 @@
       <c r="A21">
         <v>20</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3111,7 +3117,7 @@
       <c r="A22">
         <v>21</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3119,7 +3125,7 @@
       <c r="A23">
         <v>22</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3127,7 +3133,7 @@
       <c r="A24">
         <v>23</v>
       </c>
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="12" t="s">
         <v>157</v>
       </c>
     </row>
@@ -3135,7 +3141,7 @@
       <c r="A25">
         <v>24</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="12" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3143,7 +3149,7 @@
       <c r="A26">
         <v>25</v>
       </c>
-      <c r="B26" s="13" t="s">
+      <c r="B26" s="12" t="s">
         <v>146</v>
       </c>
     </row>
@@ -3151,7 +3157,7 @@
       <c r="A27">
         <v>26</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="B27" s="12" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3159,7 +3165,7 @@
       <c r="A28">
         <v>27</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="12" t="s">
         <v>169</v>
       </c>
     </row>
@@ -3167,7 +3173,7 @@
       <c r="A29">
         <v>28</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="12" t="s">
         <v>151</v>
       </c>
     </row>
@@ -3175,7 +3181,7 @@
       <c r="A30">
         <v>29</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="12" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3183,7 +3189,7 @@
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="12" t="s">
         <v>176</v>
       </c>
     </row>
@@ -3191,7 +3197,7 @@
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="12" t="s">
         <v>139</v>
       </c>
     </row>
@@ -3199,7 +3205,7 @@
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="13" t="s">
+      <c r="B33" s="12" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3207,7 +3213,7 @@
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="13" t="s">
+      <c r="B34" s="12" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3215,7 +3221,7 @@
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="12" t="s">
         <v>167</v>
       </c>
     </row>
@@ -3223,7 +3229,7 @@
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="13" t="s">
+      <c r="B36" s="12" t="s">
         <v>120</v>
       </c>
     </row>
@@ -3231,7 +3237,7 @@
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="13" t="s">
+      <c r="B37" s="12" t="s">
         <v>102</v>
       </c>
     </row>
@@ -3603,8 +3609,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3673,10 +3679,10 @@
       <c r="D2" s="7">
         <v>15</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="14">
         <v>44687</v>
       </c>
-      <c r="F2" s="12">
+      <c r="F2" s="14">
         <v>44693</v>
       </c>
       <c r="G2" s="7">
@@ -3713,10 +3719,10 @@
       <c r="D3" s="6">
         <v>15</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="14">
         <v>44687</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="14">
         <v>44693</v>
       </c>
       <c r="G3" s="6">
@@ -3753,10 +3759,10 @@
       <c r="D4" s="6">
         <v>10</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="14">
         <v>44689</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <v>44695</v>
       </c>
       <c r="G4" s="7">
@@ -3794,10 +3800,10 @@
       <c r="D5" s="6">
         <v>1</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="14">
         <v>44689</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="14">
         <v>44695</v>
       </c>
       <c r="G5" s="6">
@@ -3834,10 +3840,10 @@
       <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="14">
         <v>44691</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>44697</v>
       </c>
       <c r="G6" s="7">
@@ -3874,10 +3880,10 @@
       <c r="D7" s="6">
         <v>1</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="14">
         <v>44692</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <v>44698</v>
       </c>
       <c r="G7" s="6">
@@ -3915,10 +3921,10 @@
       <c r="D8" s="6">
         <v>2</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="14">
         <v>44693</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="14">
         <v>44699</v>
       </c>
       <c r="G8" s="7">
@@ -3955,10 +3961,10 @@
       <c r="D9" s="6">
         <v>1</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="14">
         <v>44694</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="14">
         <v>44700</v>
       </c>
       <c r="G9" s="6">
@@ -3995,10 +4001,10 @@
       <c r="D10" s="6">
         <v>1</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="14">
         <v>44696</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="14">
         <v>44702</v>
       </c>
       <c r="G10" s="7">
@@ -4036,10 +4042,10 @@
       <c r="D11" s="6">
         <v>1</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="14">
         <v>44696</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="14">
         <v>44702</v>
       </c>
       <c r="G11" s="6">
@@ -4077,10 +4083,10 @@
       <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="14">
         <v>44687</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="14">
         <v>44693</v>
       </c>
       <c r="G12" s="7">
@@ -4117,10 +4123,10 @@
       <c r="D13" s="6">
         <v>15</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="14">
         <v>44687</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="14">
         <v>44693</v>
       </c>
       <c r="G13" s="6">
@@ -4157,10 +4163,10 @@
       <c r="D14" s="6">
         <v>10</v>
       </c>
-      <c r="E14" s="12">
+      <c r="E14" s="14">
         <v>44689</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="14">
         <v>44695</v>
       </c>
       <c r="G14" s="7">
@@ -4198,10 +4204,10 @@
       <c r="D15" s="6">
         <v>2</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="14">
         <v>44689</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="14">
         <v>44695</v>
       </c>
       <c r="G15" s="6">
@@ -4238,10 +4244,10 @@
       <c r="D16" s="6">
         <v>10</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="14">
         <v>44691</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="14">
         <v>44697</v>
       </c>
       <c r="G16" s="7">
@@ -4278,10 +4284,10 @@
       <c r="D17" s="6">
         <v>1</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17" s="14">
         <v>44692</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="14">
         <v>44698</v>
       </c>
       <c r="G17" s="6">
@@ -4319,10 +4325,10 @@
       <c r="D18" s="6">
         <v>2</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18" s="14">
         <v>44693</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="14">
         <v>44699</v>
       </c>
       <c r="G18" s="7">
@@ -4359,10 +4365,10 @@
       <c r="D19" s="6">
         <v>1</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19" s="14">
         <v>44694</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19" s="14">
         <v>44700</v>
       </c>
       <c r="G19" s="6">
@@ -4399,10 +4405,10 @@
       <c r="D20" s="6">
         <v>1</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20" s="14">
         <v>44696</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20" s="14">
         <v>44702</v>
       </c>
       <c r="G20" s="7">
@@ -4440,10 +4446,10 @@
       <c r="D21" s="6">
         <v>1</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21" s="14">
         <v>44696</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21" s="14">
         <v>44702</v>
       </c>
       <c r="G21" s="6">
@@ -4469,6 +4475,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4476,7 +4483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -4535,8 +4542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="V4" sqref="V4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4629,7 +4636,7 @@
       <c r="F2" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="15">
         <v>400</v>
       </c>
       <c r="H2" s="4">
@@ -4689,7 +4696,7 @@
       <c r="F3" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="15">
         <v>600</v>
       </c>
       <c r="H3" s="4">
@@ -4749,7 +4756,7 @@
       <c r="F4" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="15">
         <v>600</v>
       </c>
       <c r="H4" s="4">
@@ -4809,7 +4816,7 @@
       <c r="F5" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="15">
         <v>4100</v>
       </c>
       <c r="H5" s="4">
@@ -4869,7 +4876,7 @@
       <c r="F6" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="15">
         <v>199</v>
       </c>
       <c r="H6" s="4">
@@ -4929,7 +4936,7 @@
       <c r="F7" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="15">
         <v>170</v>
       </c>
       <c r="H7" s="4">
@@ -4989,7 +4996,7 @@
       <c r="F8" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="15">
         <v>140</v>
       </c>
       <c r="H8" s="4">
@@ -5049,7 +5056,7 @@
       <c r="F9" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="15">
         <v>3500</v>
       </c>
       <c r="H9" s="4">
@@ -5109,7 +5116,7 @@
       <c r="F10" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="15">
         <v>166</v>
       </c>
       <c r="H10" s="4">
@@ -5169,7 +5176,7 @@
       <c r="F11" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="15">
         <v>1200</v>
       </c>
       <c r="H11" s="4">
@@ -5229,7 +5236,7 @@
       <c r="F12" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="15">
         <v>300</v>
       </c>
       <c r="H12" s="4">
@@ -5289,7 +5296,7 @@
       <c r="F13" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="15">
         <v>149</v>
       </c>
       <c r="H13" s="4">
@@ -5349,7 +5356,7 @@
       <c r="F14" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="15">
         <v>2190</v>
       </c>
       <c r="H14" s="4">
@@ -5409,7 +5416,7 @@
       <c r="F15" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="15">
         <v>510</v>
       </c>
       <c r="H15" s="4">
@@ -5469,7 +5476,7 @@
       <c r="F16" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="15">
         <v>385</v>
       </c>
       <c r="H16" s="4">
@@ -5529,7 +5536,7 @@
       <c r="F17" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="15">
         <v>300</v>
       </c>
       <c r="H17" s="4">
@@ -5589,7 +5596,7 @@
       <c r="F18" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="15">
         <v>177</v>
       </c>
       <c r="H18" s="4">
@@ -5649,7 +5656,7 @@
       <c r="F19" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="15">
         <v>292</v>
       </c>
       <c r="H19" s="4">
@@ -5709,7 +5716,7 @@
       <c r="F20" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="15">
         <v>100</v>
       </c>
       <c r="H20" s="4">
@@ -5769,7 +5776,7 @@
       <c r="F21" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="15">
         <v>800</v>
       </c>
       <c r="H21" s="4">
@@ -5829,7 +5836,7 @@
       <c r="F22" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="15">
         <v>50</v>
       </c>
       <c r="H22" s="4">
@@ -5889,7 +5896,7 @@
       <c r="F23" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="15">
         <v>510</v>
       </c>
       <c r="H23" s="4">
@@ -5949,7 +5956,7 @@
       <c r="F24" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="15">
         <v>234</v>
       </c>
       <c r="H24" s="4">
@@ -6009,7 +6016,7 @@
       <c r="F25" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="15">
         <v>280</v>
       </c>
       <c r="H25" s="4">
@@ -6069,7 +6076,7 @@
       <c r="F26" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="15">
         <v>1700</v>
       </c>
       <c r="H26" s="4">
@@ -6129,7 +6136,7 @@
       <c r="F27" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="15">
         <v>1700</v>
       </c>
       <c r="H27" s="4">
@@ -6189,7 +6196,7 @@
       <c r="F28" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="15">
         <v>640</v>
       </c>
       <c r="H28" s="4">
@@ -6249,7 +6256,7 @@
       <c r="F29" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="15">
         <v>600</v>
       </c>
       <c r="H29" s="4">
@@ -6309,7 +6316,7 @@
       <c r="F30" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="15">
         <v>86</v>
       </c>
       <c r="H30" s="4">
@@ -6369,7 +6376,7 @@
       <c r="F31" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="15">
         <v>123</v>
       </c>
       <c r="H31" s="4">
